--- a/DAT/extraccion/insumos/insumos.xlsx
+++ b/DAT/extraccion/insumos/insumos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenri\Google Drive\Cosas del trabajo\SAS\SASUniversityEdition\myfolders\aar\DAT\extraccion\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B7EFD-F2B2-4525-8067-AB2A2C6C1983}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895B6F3-AEF0-4AF4-B422-42AAF5887542}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005" activeTab="2" xr2:uid="{AD0B3051-A58F-42D1-9866-B72D3B85F3C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005" activeTab="1" xr2:uid="{AD0B3051-A58F-42D1-9866-B72D3B85F3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="asegurados" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,8 +204,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{189244F0-0D64-44AF-8B60-7D3059639A7F}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -641,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A402776-8E1F-49AC-85C4-4A9E0E176839}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +744,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -739,7 +767,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F4">
-        <v>0.45</v>
+        <v>0.375</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -757,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1FC271-596E-4FE6-92E3-501D49AFE170}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/DAT/extraccion/insumos/insumos.xlsx
+++ b/DAT/extraccion/insumos/insumos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenri\Google Drive\Cosas del trabajo\SAS\SASUniversityEdition\myfolders\aar\DAT\extraccion\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CE6CC6-7268-414D-BA93-A183219F764B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C2CFA4-502D-4C2A-9BD3-1A50F4E73C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AD0B3051-A58F-42D1-9866-B72D3B85F3C1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>id_annuity</t>
   </si>
@@ -188,7 +188,10 @@
     <t>tx_country</t>
   </si>
   <si>
-    <t>Confidence level</t>
+    <t>Confidence level (%)  (if you want 10% then you enter 10)</t>
+  </si>
+  <si>
+    <t>SAS percentile definition (see http://support.sas.com/documentation/cdl/en/procstat/66703/HTML/default/viewer.htm#procstat_univariate_details13.htm)</t>
   </si>
 </sst>
 </file>
@@ -33930,7 +33933,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8082FE05-4006-450A-8322-925E0F052AD1}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -34114,7 +34117,18 @@
         <v>52</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DAT/extraccion/insumos/insumos.xlsx
+++ b/DAT/extraccion/insumos/insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenri\Google Drive\Cosas del trabajo\SAS\SASUniversityEdition\myfolders\aar\DAT\extraccion\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C2CFA4-502D-4C2A-9BD3-1A50F4E73C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91E5647-A94D-4A24-89FC-73FD4053BF13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AD0B3051-A58F-42D1-9866-B72D3B85F3C1}"/>
   </bookViews>
@@ -33936,7 +33936,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
